--- a/01TaiLieu/CG_DN - Audit Module 2.xlsx
+++ b/01TaiLieu/CG_DN - Audit Module 2.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanli\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB04EC1A-4BB7-45DD-B4C4-CB629AA5E7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3EB00F1B-DA94-4B11-84FB-D59952AF4473}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -235,7 +229,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -400,7 +394,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -452,7 +446,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -646,27 +640,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA720F9-5F01-4B4D-9B5F-A540EE9D7E38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C59"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="61.140625" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" customWidth="1"/>
+    <col min="2" max="2" width="61.109375" customWidth="1"/>
+    <col min="3" max="3" width="54.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -696,7 +690,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -708,7 +702,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -720,7 +714,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -732,7 +726,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -744,7 +738,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -756,7 +750,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -768,7 +762,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -780,7 +774,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -792,7 +786,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -804,7 +798,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -816,7 +810,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -828,7 +822,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -840,7 +834,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -852,7 +846,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -864,7 +858,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -876,7 +870,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -888,7 +882,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -900,7 +894,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -912,7 +906,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -924,7 +918,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -936,7 +930,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -948,7 +942,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -960,7 +954,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -972,7 +966,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -984,7 +978,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -996,7 +990,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1008,7 +1002,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1020,7 +1014,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1032,7 +1026,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1044,7 +1038,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1056,7 +1050,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1068,7 +1062,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1080,7 +1074,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1092,7 +1086,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1104,7 +1098,7 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1116,7 +1110,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1128,7 +1122,7 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1140,7 +1134,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1152,7 +1146,7 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1164,7 +1158,7 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1176,7 +1170,7 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -1188,7 +1182,7 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1200,7 +1194,7 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -1212,7 +1206,7 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -1224,7 +1218,7 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -1236,7 +1230,7 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -1248,7 +1242,7 @@
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -1260,7 +1254,7 @@
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -1272,7 +1266,7 @@
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -1282,7 +1276,7 @@
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -1292,7 +1286,7 @@
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -1302,7 +1296,7 @@
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -1312,7 +1306,7 @@
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -1322,7 +1316,7 @@
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -1332,7 +1326,7 @@
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -1342,7 +1336,7 @@
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -1352,7 +1346,7 @@
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
